--- a/AAII_Financials/Yearly/ATAT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATAT_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>321700</v>
+        <v>311800</v>
       </c>
       <c r="E8" s="3">
-        <v>305300</v>
+        <v>295900</v>
       </c>
       <c r="F8" s="3">
-        <v>222700</v>
+        <v>215800</v>
       </c>
       <c r="G8" s="3">
-        <v>222800</v>
+        <v>215900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -806,16 +806,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="E12" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="F12" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="G12" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>298200</v>
+        <v>289100</v>
       </c>
       <c r="E17" s="3">
-        <v>277400</v>
+        <v>268900</v>
       </c>
       <c r="F17" s="3">
-        <v>213700</v>
+        <v>207100</v>
       </c>
       <c r="G17" s="3">
-        <v>209800</v>
+        <v>203300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="E18" s="3">
-        <v>27900</v>
+        <v>27000</v>
       </c>
       <c r="F18" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="G18" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
         <v>2200</v>
@@ -1000,7 +1000,7 @@
         <v>1900</v>
       </c>
       <c r="G20" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>39200</v>
+        <v>38000</v>
       </c>
       <c r="E21" s="3">
-        <v>43500</v>
+        <v>42100</v>
       </c>
       <c r="F21" s="3">
-        <v>23100</v>
+        <v>22300</v>
       </c>
       <c r="G21" s="3">
-        <v>26000</v>
+        <v>25200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25700</v>
+        <v>24900</v>
       </c>
       <c r="E23" s="3">
-        <v>29000</v>
+        <v>28100</v>
       </c>
       <c r="F23" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="G23" s="3">
-        <v>15400</v>
+        <v>14900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="E24" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="F24" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G24" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="E26" s="3">
-        <v>19900</v>
+        <v>19200</v>
       </c>
       <c r="F26" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="G26" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="E27" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="F27" s="3">
         <v>-1500</v>
       </c>
       <c r="G27" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
         <v>-2200</v>
@@ -1324,7 +1324,7 @@
         <v>-1900</v>
       </c>
       <c r="G32" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="E33" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="F33" s="3">
         <v>-1500</v>
       </c>
       <c r="G33" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="E35" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="F35" s="3">
         <v>-1500</v>
       </c>
       <c r="G35" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,16 +1481,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>225900</v>
+        <v>219000</v>
       </c>
       <c r="E41" s="3">
-        <v>147600</v>
+        <v>143100</v>
       </c>
       <c r="F41" s="3">
-        <v>117200</v>
+        <v>113600</v>
       </c>
       <c r="G41" s="3">
-        <v>108500</v>
+        <v>105200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1508,7 +1508,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>22400</v>
+        <v>21700</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42600</v>
+        <v>41300</v>
       </c>
       <c r="E43" s="3">
-        <v>40900</v>
+        <v>39700</v>
       </c>
       <c r="F43" s="3">
-        <v>38600</v>
+        <v>37400</v>
       </c>
       <c r="G43" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1562,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="E44" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="F44" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G44" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1589,16 +1589,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E45" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F45" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="G45" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>302000</v>
+        <v>292700</v>
       </c>
       <c r="E46" s="3">
-        <v>201300</v>
+        <v>195100</v>
       </c>
       <c r="F46" s="3">
-        <v>166300</v>
+        <v>161200</v>
       </c>
       <c r="G46" s="3">
-        <v>136900</v>
+        <v>132700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1643,16 +1643,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="E47" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="F47" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G47" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>325900</v>
+        <v>315800</v>
       </c>
       <c r="E48" s="3">
-        <v>62400</v>
+        <v>60500</v>
       </c>
       <c r="F48" s="3">
-        <v>66400</v>
+        <v>64400</v>
       </c>
       <c r="G48" s="3">
-        <v>58900</v>
+        <v>57100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E49" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F49" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G49" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36200</v>
+        <v>35100</v>
       </c>
       <c r="E52" s="3">
-        <v>43500</v>
+        <v>42200</v>
       </c>
       <c r="F52" s="3">
-        <v>39100</v>
+        <v>37900</v>
       </c>
       <c r="G52" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>676900</v>
+        <v>656100</v>
       </c>
       <c r="E54" s="3">
-        <v>319100</v>
+        <v>309300</v>
       </c>
       <c r="F54" s="3">
-        <v>282300</v>
+        <v>273600</v>
       </c>
       <c r="G54" s="3">
-        <v>234300</v>
+        <v>227100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28100</v>
+        <v>27200</v>
       </c>
       <c r="E57" s="3">
-        <v>28400</v>
+        <v>27500</v>
       </c>
       <c r="F57" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="G57" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1912,16 +1912,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24400</v>
+        <v>23700</v>
       </c>
       <c r="E58" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="F58" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="G58" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>139000</v>
+        <v>134800</v>
       </c>
       <c r="E59" s="3">
-        <v>111700</v>
+        <v>108300</v>
       </c>
       <c r="F59" s="3">
-        <v>96700</v>
+        <v>93800</v>
       </c>
       <c r="G59" s="3">
-        <v>74900</v>
+        <v>72600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>191600</v>
+        <v>185700</v>
       </c>
       <c r="E60" s="3">
-        <v>149500</v>
+        <v>144900</v>
       </c>
       <c r="F60" s="3">
-        <v>127700</v>
+        <v>123800</v>
       </c>
       <c r="G60" s="3">
-        <v>96200</v>
+        <v>93200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1996,13 +1996,13 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="F61" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G61" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>316300</v>
+        <v>306600</v>
       </c>
       <c r="E62" s="3">
-        <v>83200</v>
+        <v>80700</v>
       </c>
       <c r="F62" s="3">
-        <v>69700</v>
+        <v>67500</v>
       </c>
       <c r="G62" s="3">
-        <v>59000</v>
+        <v>57200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>506700</v>
+        <v>491100</v>
       </c>
       <c r="E66" s="3">
-        <v>236800</v>
+        <v>229500</v>
       </c>
       <c r="F66" s="3">
-        <v>200500</v>
+        <v>194300</v>
       </c>
       <c r="G66" s="3">
-        <v>158500</v>
+        <v>153700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2276,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11100</v>
+        <v>-10800</v>
       </c>
       <c r="E72" s="3">
-        <v>-25100</v>
+        <v>-24300</v>
       </c>
       <c r="F72" s="3">
-        <v>-43500</v>
+        <v>-42200</v>
       </c>
       <c r="G72" s="3">
-        <v>-42000</v>
+        <v>-40700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>170200</v>
+        <v>165000</v>
       </c>
       <c r="E76" s="3">
-        <v>82400</v>
+        <v>79800</v>
       </c>
       <c r="F76" s="3">
-        <v>81800</v>
+        <v>79300</v>
       </c>
       <c r="G76" s="3">
-        <v>75800</v>
+        <v>73500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="E81" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="F81" s="3">
         <v>-1500</v>
       </c>
       <c r="G81" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,16 +2510,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="E83" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="F83" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="G83" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>40300</v>
+        <v>39100</v>
       </c>
       <c r="E89" s="3">
-        <v>59400</v>
+        <v>57600</v>
       </c>
       <c r="F89" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="G89" s="3">
-        <v>31900</v>
+        <v>30900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,16 +2712,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="E91" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="F91" s="3">
-        <v>-16000</v>
+        <v>-15500</v>
       </c>
       <c r="G91" s="3">
-        <v>-19400</v>
+        <v>-18800</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-27300</v>
+        <v>-26500</v>
       </c>
       <c r="E94" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="F94" s="3">
-        <v>-15000</v>
+        <v>-14500</v>
       </c>
       <c r="G94" s="3">
-        <v>37600</v>
+        <v>36500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>64900</v>
+        <v>62900</v>
       </c>
       <c r="E100" s="3">
-        <v>-22900</v>
+        <v>-22200</v>
       </c>
       <c r="F100" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="G100" s="3">
         <v>-1400</v>
@@ -2971,7 +2971,7 @@
         <v>400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>78300</v>
+        <v>75900</v>
       </c>
       <c r="E102" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="F102" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="G102" s="3">
-        <v>68100</v>
+        <v>66000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ATAT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATAT_YR_FIN.xlsx
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>311800</v>
+        <v>312500</v>
       </c>
       <c r="E8" s="3">
-        <v>295900</v>
+        <v>296500</v>
       </c>
       <c r="F8" s="3">
-        <v>215800</v>
+        <v>216300</v>
       </c>
       <c r="G8" s="3">
-        <v>215900</v>
+        <v>216400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -815,7 +815,7 @@
         <v>4600</v>
       </c>
       <c r="G12" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>289100</v>
+        <v>289700</v>
       </c>
       <c r="E17" s="3">
-        <v>268900</v>
+        <v>269500</v>
       </c>
       <c r="F17" s="3">
-        <v>207100</v>
+        <v>207600</v>
       </c>
       <c r="G17" s="3">
-        <v>203300</v>
+        <v>203800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="E18" s="3">
-        <v>27000</v>
+        <v>27100</v>
       </c>
       <c r="F18" s="3">
         <v>8700</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E20" s="3">
         <v>2200</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="E21" s="3">
-        <v>42100</v>
+        <v>42200</v>
       </c>
       <c r="F21" s="3">
         <v>22300</v>
@@ -1075,13 +1075,13 @@
         <v>24900</v>
       </c>
       <c r="E23" s="3">
-        <v>28100</v>
+        <v>28200</v>
       </c>
       <c r="F23" s="3">
         <v>10400</v>
       </c>
       <c r="G23" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="E24" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F24" s="3">
         <v>5200</v>
       </c>
       <c r="G24" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="E26" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="F26" s="3">
         <v>5200</v>
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E32" s="3">
         <v>-2200</v>
@@ -1481,16 +1481,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>219000</v>
+        <v>219400</v>
       </c>
       <c r="E41" s="3">
-        <v>143100</v>
+        <v>143400</v>
       </c>
       <c r="F41" s="3">
-        <v>113600</v>
+        <v>113900</v>
       </c>
       <c r="G41" s="3">
-        <v>105200</v>
+        <v>105400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1508,7 +1508,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41300</v>
+        <v>41400</v>
       </c>
       <c r="E43" s="3">
-        <v>39700</v>
+        <v>39800</v>
       </c>
       <c r="F43" s="3">
-        <v>37400</v>
+        <v>37500</v>
       </c>
       <c r="G43" s="3">
         <v>19000</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>292700</v>
+        <v>293400</v>
       </c>
       <c r="E46" s="3">
-        <v>195100</v>
+        <v>195600</v>
       </c>
       <c r="F46" s="3">
-        <v>161200</v>
+        <v>161500</v>
       </c>
       <c r="G46" s="3">
-        <v>132700</v>
+        <v>133000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1649,7 +1649,7 @@
         <v>8600</v>
       </c>
       <c r="F47" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G47" s="3">
         <v>6200</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>315800</v>
+        <v>316500</v>
       </c>
       <c r="E48" s="3">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="F48" s="3">
-        <v>64400</v>
+        <v>64500</v>
       </c>
       <c r="G48" s="3">
-        <v>57100</v>
+        <v>57200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35100</v>
+        <v>35200</v>
       </c>
       <c r="E52" s="3">
-        <v>42200</v>
+        <v>42300</v>
       </c>
       <c r="F52" s="3">
-        <v>37900</v>
+        <v>38000</v>
       </c>
       <c r="G52" s="3">
-        <v>28400</v>
+        <v>28500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>656100</v>
+        <v>657500</v>
       </c>
       <c r="E54" s="3">
-        <v>309300</v>
+        <v>310000</v>
       </c>
       <c r="F54" s="3">
-        <v>273600</v>
+        <v>274200</v>
       </c>
       <c r="G54" s="3">
-        <v>227100</v>
+        <v>227600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="E57" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="F57" s="3">
         <v>17600</v>
       </c>
       <c r="G57" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1918,7 +1918,7 @@
         <v>9100</v>
       </c>
       <c r="F58" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="G58" s="3">
         <v>6100</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>134800</v>
+        <v>135100</v>
       </c>
       <c r="E59" s="3">
-        <v>108300</v>
+        <v>108500</v>
       </c>
       <c r="F59" s="3">
-        <v>93800</v>
+        <v>94000</v>
       </c>
       <c r="G59" s="3">
-        <v>72600</v>
+        <v>72700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>185700</v>
+        <v>186100</v>
       </c>
       <c r="E60" s="3">
-        <v>144900</v>
+        <v>145200</v>
       </c>
       <c r="F60" s="3">
-        <v>123800</v>
+        <v>124100</v>
       </c>
       <c r="G60" s="3">
-        <v>93200</v>
+        <v>93400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>306600</v>
+        <v>307200</v>
       </c>
       <c r="E62" s="3">
-        <v>80700</v>
+        <v>80800</v>
       </c>
       <c r="F62" s="3">
-        <v>67500</v>
+        <v>67700</v>
       </c>
       <c r="G62" s="3">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>491100</v>
+        <v>492200</v>
       </c>
       <c r="E66" s="3">
-        <v>229500</v>
+        <v>230000</v>
       </c>
       <c r="F66" s="3">
-        <v>194300</v>
+        <v>194800</v>
       </c>
       <c r="G66" s="3">
-        <v>153700</v>
+        <v>154000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2279,13 +2279,13 @@
         <v>-10800</v>
       </c>
       <c r="E72" s="3">
-        <v>-24300</v>
+        <v>-24400</v>
       </c>
       <c r="F72" s="3">
-        <v>-42200</v>
+        <v>-42300</v>
       </c>
       <c r="G72" s="3">
-        <v>-40700</v>
+        <v>-40800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>165000</v>
+        <v>165300</v>
       </c>
       <c r="E76" s="3">
-        <v>79800</v>
+        <v>80000</v>
       </c>
       <c r="F76" s="3">
-        <v>79300</v>
+        <v>79400</v>
       </c>
       <c r="G76" s="3">
-        <v>73500</v>
+        <v>73600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2513,7 +2513,7 @@
         <v>12200</v>
       </c>
       <c r="E83" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="F83" s="3">
         <v>11700</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>39100</v>
+        <v>39200</v>
       </c>
       <c r="E89" s="3">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="F89" s="3">
         <v>16400</v>
@@ -2718,10 +2718,10 @@
         <v>-8800</v>
       </c>
       <c r="F91" s="3">
-        <v>-15500</v>
+        <v>-15600</v>
       </c>
       <c r="G91" s="3">
-        <v>-18800</v>
+        <v>-18900</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2799,10 +2799,10 @@
         <v>-5800</v>
       </c>
       <c r="F94" s="3">
-        <v>-14500</v>
+        <v>-14600</v>
       </c>
       <c r="G94" s="3">
-        <v>36500</v>
+        <v>36600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2941,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="E100" s="3">
         <v>-22200</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>75900</v>
+        <v>76000</v>
       </c>
       <c r="E102" s="3">
-        <v>28400</v>
+        <v>28500</v>
       </c>
       <c r="F102" s="3">
         <v>8400</v>
       </c>
       <c r="G102" s="3">
-        <v>66000</v>
+        <v>66100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
